--- a/SAS codes/results/MDMresults.xlsx
+++ b/SAS codes/results/MDMresults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="293">
   <si>
     <t>PS
 Stratum</t>
@@ -138,10 +138,10 @@
     <t>Continuous [mean(sd)]</t>
   </si>
   <si>
-    <t>13217.9 (4588.1)</t>
-  </si>
-  <si>
-    <t>12972.7 (4740.4)</t>
+    <t>13122 (4733.8)</t>
+  </si>
+  <si>
+    <t>13022.7 (4756.2)</t>
   </si>
   <si>
     <t>birth_institution=AHN</t>
@@ -150,661 +150,703 @@
     <t>Categorical [n(%)]</t>
   </si>
   <si>
-    <t>93 (17.8)</t>
-  </si>
-  <si>
-    <t>701 (15.7)</t>
+    <t>348 (17.1)</t>
+  </si>
+  <si>
+    <t>3075 (17.1)</t>
   </si>
   <si>
     <t>birth_institution=KWH</t>
   </si>
   <si>
-    <t>96 (18.4)</t>
-  </si>
-  <si>
-    <t>766 (17.1)</t>
+    <t>358 (17.6)</t>
+  </si>
+  <si>
+    <t>2936 (16.3)</t>
   </si>
   <si>
     <t>birth_institution=PMH</t>
   </si>
   <si>
-    <t>94 (18)</t>
-  </si>
-  <si>
-    <t>731 (16.3)</t>
+    <t>328 (16.1)</t>
+  </si>
+  <si>
+    <t>2999 (16.7)</t>
   </si>
   <si>
     <t>birth_institution=PYN</t>
   </si>
   <si>
-    <t>76 (14.5)</t>
-  </si>
-  <si>
-    <t>768 (17.2)</t>
+    <t>344 (16.9)</t>
+  </si>
+  <si>
+    <t>2951 (16.4)</t>
   </si>
   <si>
     <t>birth_institution=QMH</t>
   </si>
   <si>
-    <t>79 (15.1)</t>
-  </si>
-  <si>
-    <t>746 (16.7)</t>
+    <t>323 (15.9)</t>
+  </si>
+  <si>
+    <t>2956 (16.5)</t>
   </si>
   <si>
     <t>birth_institution=UCH</t>
   </si>
   <si>
-    <t>85 (16.3)</t>
-  </si>
-  <si>
-    <t>765 (17.1)</t>
+    <t>335 (16.5)</t>
+  </si>
+  <si>
+    <t>3047 (17)</t>
   </si>
   <si>
     <t>parity=1</t>
   </si>
   <si>
-    <t>705 (15.7)</t>
+    <t>334 (16.4)</t>
+  </si>
+  <si>
+    <t>3020 (16.8)</t>
   </si>
   <si>
     <t>parity=2</t>
   </si>
   <si>
-    <t>92 (17.6)</t>
-  </si>
-  <si>
-    <t>763 (17)</t>
+    <t>329 (16.2)</t>
+  </si>
+  <si>
+    <t>2972 (16.5)</t>
   </si>
   <si>
     <t>parity=3</t>
   </si>
   <si>
-    <t>80 (15.3)</t>
-  </si>
-  <si>
-    <t>742 (16.6)</t>
+    <t>2990 (16.6)</t>
   </si>
   <si>
     <t>parity=4</t>
   </si>
   <si>
-    <t>90 (17.2)</t>
-  </si>
-  <si>
-    <t>755 (16.9)</t>
+    <t>2973 (16.5)</t>
   </si>
   <si>
     <t>parity=&gt;= 5</t>
   </si>
   <si>
-    <t>89 (17)</t>
-  </si>
-  <si>
-    <t>791 (17.7)</t>
+    <t>333 (16.4)</t>
+  </si>
+  <si>
+    <t>3040 (16.9)</t>
   </si>
   <si>
     <t>multi_pregnancy=N</t>
   </si>
   <si>
-    <t>259 (49.5)</t>
-  </si>
-  <si>
-    <t>2291 (51.2)</t>
+    <t>963 (47.3)</t>
+  </si>
+  <si>
+    <t>9064 (50.5)</t>
   </si>
   <si>
     <t>multi_pregnancy=Y</t>
   </si>
   <si>
-    <t>264 (50.5)</t>
-  </si>
-  <si>
-    <t>2186 (48.8)</t>
+    <t>1073 (52.7)</t>
+  </si>
+  <si>
+    <t>8900 (49.5)</t>
   </si>
   <si>
     <t>baby_sex=F</t>
   </si>
   <si>
-    <t>260 (49.7)</t>
-  </si>
-  <si>
-    <t>2224 (49.7)</t>
+    <t>991 (48.7)</t>
+  </si>
+  <si>
+    <t>8843 (49.2)</t>
   </si>
   <si>
     <t>baby_sex=M</t>
   </si>
   <si>
-    <t>263 (50.3)</t>
-  </si>
-  <si>
-    <t>2253 (50.3)</t>
+    <t>1045 (51.3)</t>
+  </si>
+  <si>
+    <t>9121 (50.8)</t>
   </si>
   <si>
     <t>birth_year=2001</t>
   </si>
   <si>
-    <t>32 (6.1)</t>
-  </si>
-  <si>
-    <t>299 (6.7)</t>
+    <t>154 (7.6)</t>
+  </si>
+  <si>
+    <t>1296 (7.2)</t>
   </si>
   <si>
     <t>birth_year=2002</t>
   </si>
   <si>
-    <t>37 (7.1)</t>
-  </si>
-  <si>
-    <t>317 (7.1)</t>
+    <t>136 (6.7)</t>
+  </si>
+  <si>
+    <t>1261 (7)</t>
   </si>
   <si>
     <t>birth_year=2003</t>
   </si>
   <si>
-    <t>30 (5.7)</t>
-  </si>
-  <si>
-    <t>316 (7.1)</t>
+    <t>153 (7.5)</t>
+  </si>
+  <si>
+    <t>1314 (7.3)</t>
   </si>
   <si>
     <t>birth_year=2004</t>
   </si>
   <si>
-    <t>34 (6.5)</t>
-  </si>
-  <si>
-    <t>350 (7.8)</t>
+    <t>138 (6.8)</t>
+  </si>
+  <si>
+    <t>1220 (6.8)</t>
   </si>
   <si>
     <t>birth_year=2005</t>
   </si>
   <si>
-    <t>43 (8.2)</t>
-  </si>
-  <si>
-    <t>328 (7.3)</t>
+    <t>151 (7.4)</t>
+  </si>
+  <si>
+    <t>1275 (7.1)</t>
   </si>
   <si>
     <t>birth_year=2006</t>
   </si>
   <si>
-    <t>36 (6.9)</t>
+    <t>145 (7.1)</t>
+  </si>
+  <si>
+    <t>1259 (7)</t>
   </si>
   <si>
     <t>birth_year=2007</t>
   </si>
   <si>
+    <t>1284 (7.1)</t>
+  </si>
+  <si>
     <t>birth_year=2008</t>
   </si>
   <si>
-    <t>38 (7.3)</t>
-  </si>
-  <si>
-    <t>327 (7.3)</t>
+    <t>144 (7.1)</t>
+  </si>
+  <si>
+    <t>1299 (7.2)</t>
   </si>
   <si>
     <t>birth_year=2009</t>
   </si>
   <si>
-    <t>35 (6.7)</t>
-  </si>
-  <si>
-    <t>323 (7.2)</t>
+    <t>132 (6.5)</t>
+  </si>
+  <si>
+    <t>1269 (7.1)</t>
   </si>
   <si>
     <t>birth_year=2010</t>
   </si>
   <si>
-    <t>45 (8.6)</t>
+    <t>1331 (7.4)</t>
   </si>
   <si>
     <t>birth_year=2011</t>
   </si>
   <si>
-    <t>39 (7.5)</t>
-  </si>
-  <si>
-    <t>346 (7.7)</t>
+    <t>1295 (7.2)</t>
   </si>
   <si>
     <t>birth_year=2012</t>
   </si>
   <si>
-    <t>47 (9)</t>
-  </si>
-  <si>
-    <t>302 (6.7)</t>
+    <t>147 (7.2)</t>
+  </si>
+  <si>
+    <t>1288 (7.2)</t>
   </si>
   <si>
     <t>birth_year=2013</t>
   </si>
   <si>
+    <t>142 (7)</t>
+  </si>
+  <si>
+    <t>1260 (7)</t>
+  </si>
+  <si>
     <t>birth_year=2014</t>
   </si>
   <si>
-    <t>321 (7.2)</t>
+    <t>1313 (7.3)</t>
   </si>
   <si>
     <t>ses=HIGH</t>
   </si>
   <si>
-    <t>129 (24.7)</t>
-  </si>
-  <si>
-    <t>1088 (24.3)</t>
+    <t>492 (24.2)</t>
+  </si>
+  <si>
+    <t>4352 (24.2)</t>
   </si>
   <si>
     <t>ses=LOW</t>
   </si>
   <si>
-    <t>135 (25.8)</t>
-  </si>
-  <si>
-    <t>1146 (25.6)</t>
+    <t>530 (26)</t>
+  </si>
+  <si>
+    <t>4533 (25.2)</t>
   </si>
   <si>
     <t>ses=MEDIUMHIGH</t>
   </si>
   <si>
-    <t>1120 (25)</t>
+    <t>486 (23.9)</t>
+  </si>
+  <si>
+    <t>4510 (25.1)</t>
   </si>
   <si>
     <t>ses=MEDIUMLOW</t>
   </si>
   <si>
-    <t>130 (24.9)</t>
-  </si>
-  <si>
-    <t>1123 (25.1)</t>
+    <t>528 (25.9)</t>
+  </si>
+  <si>
+    <t>4569 (25.4)</t>
   </si>
   <si>
     <t>antihypertensive=1</t>
   </si>
   <si>
-    <t>5 (1)</t>
-  </si>
-  <si>
-    <t>44 (1)</t>
+    <t>21 (1)</t>
+  </si>
+  <si>
+    <t>152 (0.8)</t>
   </si>
   <si>
     <t>antipsychotics=1</t>
   </si>
   <si>
-    <t>2 (0.4)</t>
-  </si>
-  <si>
-    <t>45 (1)</t>
+    <t>17 (0.8)</t>
+  </si>
+  <si>
+    <t>174 (1)</t>
   </si>
   <si>
     <t>sedatives=1</t>
   </si>
   <si>
-    <t>6 (1.1)</t>
-  </si>
-  <si>
-    <t>37 (0.8)</t>
+    <t>20 (1)</t>
+  </si>
+  <si>
+    <t>165 (0.9)</t>
   </si>
   <si>
     <t>antidepressants=1</t>
   </si>
   <si>
-    <t>7 (1.3)</t>
-  </si>
-  <si>
-    <t>43 (1)</t>
+    <t>23 (1.1)</t>
+  </si>
+  <si>
+    <t>173 (1)</t>
   </si>
   <si>
     <t>antiepileptics=1</t>
   </si>
   <si>
+    <t>15 (0.7)</t>
+  </si>
+  <si>
+    <t>162 (0.9)</t>
+  </si>
+  <si>
     <t>antiparkinson=1</t>
   </si>
   <si>
-    <t>54 (1.2)</t>
+    <t>22 (1.1)</t>
+  </si>
+  <si>
+    <t>191 (1.1)</t>
   </si>
   <si>
     <t>stimulants=1</t>
   </si>
   <si>
-    <t>48 (1.1)</t>
+    <t>164 (0.9)</t>
   </si>
   <si>
     <t>opioids=1</t>
   </si>
   <si>
+    <t>24 (1.2)</t>
+  </si>
+  <si>
+    <t>169 (0.9)</t>
+  </si>
+  <si>
     <t>teratogenic=1</t>
   </si>
   <si>
-    <t>3 (0.6)</t>
-  </si>
-  <si>
-    <t>52 (1.2)</t>
+    <t>211 (1.2)</t>
   </si>
   <si>
     <t>triptan=1</t>
   </si>
   <si>
+    <t>12 (0.6)</t>
+  </si>
+  <si>
+    <t>73 (0.4)</t>
+  </si>
+  <si>
+    <t>pcos=1</t>
+  </si>
+  <si>
+    <t>7 (0.3)</t>
+  </si>
+  <si>
+    <t>68 (0.4)</t>
+  </si>
+  <si>
+    <t>smoke=1</t>
+  </si>
+  <si>
+    <t>14 (0.7)</t>
+  </si>
+  <si>
+    <t>183 (1)</t>
+  </si>
+  <si>
+    <t>alcohol=1</t>
+  </si>
+  <si>
+    <t>18 (0.9)</t>
+  </si>
+  <si>
+    <t>192 (1.1)</t>
+  </si>
+  <si>
+    <t>anxiety=1</t>
+  </si>
+  <si>
+    <t>199 (1.1)</t>
+  </si>
+  <si>
+    <t>depression=1</t>
+  </si>
+  <si>
+    <t>207 (1.2)</t>
+  </si>
+  <si>
+    <t>epilepsy=1</t>
+  </si>
+  <si>
+    <t>197 (1.1)</t>
+  </si>
+  <si>
+    <t>migraine=1</t>
+  </si>
+  <si>
+    <t>32 (1.6)</t>
+  </si>
+  <si>
+    <t>185 (1)</t>
+  </si>
+  <si>
+    <t>sleep_disorder=1</t>
+  </si>
+  <si>
+    <t>181 (1)</t>
+  </si>
+  <si>
+    <t>hypertension=1</t>
+  </si>
+  <si>
+    <t>13 (0.6)</t>
+  </si>
+  <si>
+    <t>renal_disease=1</t>
+  </si>
+  <si>
+    <t>172 (1)</t>
+  </si>
+  <si>
+    <t>crohn_disease=1</t>
+  </si>
+  <si>
+    <t>189 (1.1)</t>
+  </si>
+  <si>
+    <t>rheumatoid_arthristis=1</t>
+  </si>
+  <si>
+    <t>25 (1.2)</t>
+  </si>
+  <si>
+    <t>175 (1)</t>
+  </si>
+  <si>
+    <t>scz=1</t>
+  </si>
+  <si>
+    <t>bipolar=1</t>
+  </si>
+  <si>
+    <t>171 (1)</t>
+  </si>
+  <si>
+    <t>intellectual_disability=1</t>
+  </si>
+  <si>
+    <t>psy_development_disorder=1</t>
+  </si>
+  <si>
+    <t>personality_disorder=1</t>
+  </si>
+  <si>
+    <t>78 (0.4)</t>
+  </si>
+  <si>
+    <t>thyroid_disorder=1</t>
+  </si>
+  <si>
+    <t>headache=1</t>
+  </si>
+  <si>
+    <t>186 (1)</t>
+  </si>
+  <si>
+    <t>adhd_asd=1</t>
+  </si>
+  <si>
+    <t>2 (0.1)</t>
+  </si>
+  <si>
+    <t>17 (0.1)</t>
+  </si>
+  <si>
+    <t>overweight=1</t>
+  </si>
+  <si>
     <t>0 (0)</t>
   </si>
   <si>
-    <t>21 (0.5)</t>
-  </si>
-  <si>
-    <t>pcos=1</t>
-  </si>
-  <si>
-    <t>23 (0.5)</t>
-  </si>
-  <si>
-    <t>smoke=1</t>
-  </si>
-  <si>
-    <t>4 (0.8)</t>
-  </si>
-  <si>
-    <t>46 (1)</t>
-  </si>
-  <si>
-    <t>drink=1</t>
-  </si>
-  <si>
-    <t>38 (0.8)</t>
-  </si>
-  <si>
-    <t>anxiety=1</t>
-  </si>
-  <si>
-    <t>1 (0.2)</t>
-  </si>
-  <si>
-    <t>51 (1.1)</t>
-  </si>
-  <si>
-    <t>depression=1</t>
-  </si>
-  <si>
-    <t>53 (1.2)</t>
-  </si>
-  <si>
-    <t>epilepsy=1</t>
-  </si>
-  <si>
-    <t>35 (0.8)</t>
-  </si>
-  <si>
-    <t>migraine=1</t>
-  </si>
-  <si>
-    <t>sleep_disorder=1</t>
-  </si>
-  <si>
-    <t>50 (1.1)</t>
-  </si>
-  <si>
-    <t>hypertension=1</t>
-  </si>
-  <si>
-    <t>renal_disease=1</t>
-  </si>
-  <si>
-    <t>39 (0.9)</t>
-  </si>
-  <si>
-    <t>crohn_disease=1</t>
-  </si>
-  <si>
-    <t>30 (0.7)</t>
-  </si>
-  <si>
-    <t>rheumatoid_arthristis=1</t>
-  </si>
-  <si>
-    <t>scz=1</t>
-  </si>
-  <si>
-    <t>55 (1.2)</t>
-  </si>
-  <si>
-    <t>bipolar=1</t>
-  </si>
-  <si>
-    <t>9 (1.7)</t>
-  </si>
-  <si>
-    <t>36 (0.8)</t>
-  </si>
-  <si>
-    <t>intellectual_disability=1</t>
-  </si>
-  <si>
-    <t>psy_development_disorder=1</t>
-  </si>
-  <si>
-    <t>11 (2.1)</t>
-  </si>
-  <si>
-    <t>personality_disorder=1</t>
-  </si>
-  <si>
-    <t>thyroid_disorder=1</t>
-  </si>
-  <si>
-    <t>headache=1</t>
-  </si>
-  <si>
-    <t>adhd_asd=1</t>
-  </si>
-  <si>
-    <t>4 (0.1)</t>
-  </si>
-  <si>
-    <t>overweight=1</t>
-  </si>
-  <si>
-    <t>5 (0.1)</t>
+    <t>12 (0.1)</t>
   </si>
   <si>
     <t>obesity=1</t>
   </si>
   <si>
+    <t>2 (0)</t>
+  </si>
+  <si>
+    <t>normal_bmi=1</t>
+  </si>
+  <si>
+    <t>2033 (99.9)</t>
+  </si>
+  <si>
+    <t>17944 (99.9)</t>
+  </si>
+  <si>
+    <t>underweight=1</t>
+  </si>
+  <si>
     <t>1 (0)</t>
   </si>
   <si>
-    <t>normal_bmi=1</t>
-  </si>
-  <si>
-    <t>523 (100)</t>
-  </si>
-  <si>
-    <t>4470 (99.8)</t>
-  </si>
-  <si>
-    <t>underweight=1</t>
+    <t>6 (0)</t>
   </si>
   <si>
     <t>illicit_drug=1</t>
   </si>
   <si>
-    <t>13213.8 (4591.5)</t>
-  </si>
-  <si>
-    <t>13212.1 (4717.4)</t>
-  </si>
-  <si>
-    <t>761 (17.4)</t>
-  </si>
-  <si>
-    <t>820 (18.8)</t>
-  </si>
-  <si>
-    <t>778 (17.8)</t>
-  </si>
-  <si>
-    <t>76 (14.6)</t>
-  </si>
-  <si>
-    <t>635 (14.5)</t>
-  </si>
-  <si>
-    <t>646 (14.8)</t>
-  </si>
-  <si>
-    <t>725 (16.6)</t>
-  </si>
-  <si>
-    <t>722 (16.5)</t>
-  </si>
-  <si>
-    <t>766 (17.5)</t>
-  </si>
-  <si>
-    <t>667 (15.3)</t>
-  </si>
-  <si>
-    <t>749 (17.2)</t>
-  </si>
-  <si>
-    <t>737 (16.9)</t>
-  </si>
-  <si>
-    <t>259 (49.6)</t>
-  </si>
-  <si>
-    <t>2159 (49.5)</t>
-  </si>
-  <si>
-    <t>263 (50.4)</t>
-  </si>
-  <si>
-    <t>2206 (50.5)</t>
-  </si>
-  <si>
-    <t>260 (49.8)</t>
-  </si>
-  <si>
-    <t>2169 (49.7)</t>
-  </si>
-  <si>
-    <t>262 (50.2)</t>
-  </si>
-  <si>
-    <t>2196 (50.3)</t>
-  </si>
-  <si>
-    <t>263 (6)</t>
-  </si>
-  <si>
-    <t>309 (7.1)</t>
-  </si>
-  <si>
-    <t>241 (5.5)</t>
-  </si>
-  <si>
-    <t>273 (6.3)</t>
-  </si>
-  <si>
-    <t>42 (8)</t>
-  </si>
-  <si>
-    <t>361 (8.3)</t>
-  </si>
-  <si>
-    <t>303 (6.9)</t>
-  </si>
-  <si>
-    <t>366 (8.4)</t>
-  </si>
-  <si>
-    <t>323 (7.4)</t>
-  </si>
-  <si>
-    <t>287 (6.6)</t>
-  </si>
-  <si>
-    <t>365 (8.4)</t>
-  </si>
-  <si>
-    <t>328 (7.5)</t>
-  </si>
-  <si>
-    <t>413 (9.5)</t>
-  </si>
-  <si>
-    <t>282 (6.5)</t>
-  </si>
-  <si>
-    <t>251 (5.8)</t>
-  </si>
-  <si>
-    <t>1076 (24.7)</t>
-  </si>
-  <si>
-    <t>134 (25.7)</t>
-  </si>
-  <si>
-    <t>1123 (25.7)</t>
-  </si>
-  <si>
-    <t>1065 (24.4)</t>
-  </si>
-  <si>
-    <t>1100 (25.2)</t>
-  </si>
-  <si>
-    <t>20 (0.5)</t>
-  </si>
-  <si>
-    <t>56 (1.3)</t>
-  </si>
-  <si>
-    <t>18 (0.4)</t>
-  </si>
-  <si>
-    <t>42 (1)</t>
-  </si>
-  <si>
-    <t>25 (0.6)</t>
-  </si>
-  <si>
-    <t>34 (0.8)</t>
-  </si>
-  <si>
-    <t>31 (0.7)</t>
-  </si>
-  <si>
-    <t>6 (0.1)</t>
-  </si>
-  <si>
-    <t>29 (0.7)</t>
-  </si>
-  <si>
-    <t>47 (1.1)</t>
-  </si>
-  <si>
-    <t>24 (0.6)</t>
-  </si>
-  <si>
-    <t>8 (1.5)</t>
-  </si>
-  <si>
-    <t>59 (1.4)</t>
-  </si>
-  <si>
-    <t>76 (1.7)</t>
-  </si>
-  <si>
-    <t>10 (0.2)</t>
-  </si>
-  <si>
-    <t>33 (0.8)</t>
-  </si>
-  <si>
-    <t>522 (100)</t>
-  </si>
-  <si>
-    <t>4365 (100)</t>
-  </si>
-  <si>
-    <t>41 (1)</t>
+    <t>13116.4 (4755.1)</t>
+  </si>
+  <si>
+    <t>3068 (17.1)</t>
+  </si>
+  <si>
+    <t>3146 (17.5)</t>
+  </si>
+  <si>
+    <t>2899 (16.2)</t>
+  </si>
+  <si>
+    <t>3016 (16.8)</t>
+  </si>
+  <si>
+    <t>2838 (15.8)</t>
+  </si>
+  <si>
+    <t>2968 (16.5)</t>
+  </si>
+  <si>
+    <t>2938 (16.4)</t>
+  </si>
+  <si>
+    <t>2890 (16.1)</t>
+  </si>
+  <si>
+    <t>3061 (17.1)</t>
+  </si>
+  <si>
+    <t>2902 (16.2)</t>
+  </si>
+  <si>
+    <t>2950 (16.4)</t>
+  </si>
+  <si>
+    <t>8441 (47.1)</t>
+  </si>
+  <si>
+    <t>9495 (52.9)</t>
+  </si>
+  <si>
+    <t>8727 (48.7)</t>
+  </si>
+  <si>
+    <t>9209 (51.3)</t>
+  </si>
+  <si>
+    <t>1348 (7.5)</t>
+  </si>
+  <si>
+    <t>1203 (6.7)</t>
+  </si>
+  <si>
+    <t>1217 (6.8)</t>
+  </si>
+  <si>
+    <t>1317 (7.3)</t>
+  </si>
+  <si>
+    <t>1285 (7.2)</t>
+  </si>
+  <si>
+    <t>1328 (7.4)</t>
+  </si>
+  <si>
+    <t>1267 (7.1)</t>
+  </si>
+  <si>
+    <t>1173 (6.5)</t>
+  </si>
+  <si>
+    <t>1333 (7.4)</t>
+  </si>
+  <si>
+    <t>1272 (7.1)</t>
+  </si>
+  <si>
+    <t>1298 (7.2)</t>
+  </si>
+  <si>
+    <t>1245 (6.9)</t>
+  </si>
+  <si>
+    <t>1301 (7.3)</t>
+  </si>
+  <si>
+    <t>4333 (24.2)</t>
+  </si>
+  <si>
+    <t>4658 (26)</t>
+  </si>
+  <si>
+    <t>4299 (24)</t>
+  </si>
+  <si>
+    <t>4646 (25.9)</t>
+  </si>
+  <si>
+    <t>151 (0.8)</t>
+  </si>
+  <si>
+    <t>204 (1.1)</t>
+  </si>
+  <si>
+    <t>133 (0.7)</t>
+  </si>
+  <si>
+    <t>190 (1.1)</t>
+  </si>
+  <si>
+    <t>187 (1)</t>
+  </si>
+  <si>
+    <t>214 (1.2)</t>
+  </si>
+  <si>
+    <t>177 (1)</t>
+  </si>
+  <si>
+    <t>111 (0.6)</t>
+  </si>
+  <si>
+    <t>63 (0.3)</t>
+  </si>
+  <si>
+    <t>126 (0.7)</t>
+  </si>
+  <si>
+    <t>160 (0.9)</t>
+  </si>
+  <si>
+    <t>123 (0.7)</t>
+  </si>
+  <si>
+    <t>213 (1.2)</t>
+  </si>
+  <si>
+    <t>153 (0.9)</t>
+  </si>
+  <si>
+    <t>293 (1.6)</t>
+  </si>
+  <si>
+    <t>101 (0.6)</t>
+  </si>
+  <si>
+    <t>112 (0.6)</t>
+  </si>
+  <si>
+    <t>194 (1.1)</t>
+  </si>
+  <si>
+    <t>228 (1.3)</t>
+  </si>
+  <si>
+    <t>135 (0.8)</t>
+  </si>
+  <si>
+    <t>198 (1.1)</t>
+  </si>
+  <si>
+    <t>193 (1.1)</t>
+  </si>
+  <si>
+    <t>178 (1)</t>
+  </si>
+  <si>
+    <t>125 (0.7)</t>
+  </si>
+  <si>
+    <t>17925 (99.9)</t>
+  </si>
+  <si>
+    <t>9 (0.1)</t>
   </si>
   <si>
     <t>measure</t>
@@ -1396,31 +1438,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.02080125431202</v>
+        <v>0.04357605439192</v>
       </c>
       <c r="C2" s="3">
-        <v>0.03703983598445</v>
+        <v>0.06309839472575</v>
       </c>
       <c r="D2" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>93</v>
+        <v>380</v>
       </c>
       <c r="G2" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3">
-        <v>0.3596588802373</v>
+        <v>0.44047151277014</v>
       </c>
       <c r="I2" s="4">
-        <v>33.448275862069</v>
+        <v>167.379174852652</v>
       </c>
       <c r="J2" s="5">
-        <v>2.51761216166111</v>
+        <v>16.7379174852652</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1428,31 +1470,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>0.03705517609244</v>
+        <v>0.06310495326345</v>
       </c>
       <c r="C3" s="3">
-        <v>0.04678583464171</v>
+        <v>0.07032837634807</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="G3" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H3" s="3">
-        <v>0.44957360029663</v>
+        <v>0.79429289188058</v>
       </c>
       <c r="I3" s="4">
-        <v>41.8103448275862</v>
+        <v>290.711198428291</v>
       </c>
       <c r="J3" s="5">
-        <v>3.14701520207638</v>
+        <v>32.5660085671036</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1460,31 +1502,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.04690060975388</v>
+        <v>0.07037605915177</v>
       </c>
       <c r="C4" s="3">
-        <v>0.05530460682516</v>
+        <v>0.07790790918594</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>92</v>
+        <v>374</v>
       </c>
       <c r="G4" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3">
-        <v>0.54535232383808</v>
+        <v>0.61242028513495</v>
       </c>
       <c r="I4" s="4">
-        <v>50.1724137931035</v>
+        <v>229.045186640472</v>
       </c>
       <c r="J4" s="5">
-        <v>4.36281859070465</v>
+        <v>20.8222896945883</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1492,31 +1534,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>0.05541268790708</v>
+        <v>0.07791938147361</v>
       </c>
       <c r="C5" s="3">
-        <v>0.06293643571311</v>
+        <v>0.08316789987618</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3">
-        <v>0.74329501915709</v>
+        <v>0.82060446214711</v>
       </c>
       <c r="I5" s="4">
-        <v>66.8965517241379</v>
+        <v>299.520628683694</v>
       </c>
       <c r="J5" s="5">
-        <v>7.43295019157088</v>
+        <v>39.3890141830611</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1524,31 +1566,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0.06302958100517</v>
+        <v>0.08319620447628</v>
       </c>
       <c r="C6" s="3">
-        <v>0.07006276758381</v>
+        <v>0.08596328582914</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>95</v>
+        <v>366</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3">
-        <v>0.17604355716878</v>
+        <v>0.81836237345271</v>
       </c>
       <c r="I6" s="4">
-        <v>16.7241379310345</v>
+        <v>299.520628683694</v>
       </c>
       <c r="J6" s="5">
-        <v>1.76043557168784</v>
+        <v>25.3692335770342</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1556,31 +1598,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>0.07006812989093</v>
+        <v>0.08596374447163</v>
       </c>
       <c r="C7" s="3">
-        <v>0.07526605773598</v>
+        <v>0.08757431289591</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>90</v>
+        <v>356</v>
       </c>
       <c r="G7" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3">
-        <v>0.74329501915709</v>
+        <v>1.06406039601775</v>
       </c>
       <c r="I7" s="4">
-        <v>66.8965517241379</v>
+        <v>378.805500982318</v>
       </c>
       <c r="J7" s="5">
-        <v>5.20306513409962</v>
+        <v>37.2421138606212</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1588,31 +1630,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.07527242257937</v>
+        <v>0.0875779441548</v>
       </c>
       <c r="C8" s="3">
-        <v>0.07824504197659</v>
+        <v>0.08892984415725</v>
       </c>
       <c r="D8" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>91</v>
+        <v>364</v>
       </c>
       <c r="G8" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3">
-        <v>0.64323607427056</v>
+        <v>0.87126233295192</v>
       </c>
       <c r="I8" s="4">
-        <v>58.5344827586207</v>
+        <v>317.139489194499</v>
       </c>
       <c r="J8" s="5">
-        <v>7.71883289124669</v>
+        <v>37.4642803169326</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1620,31 +1662,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>0.07828810034524</v>
+        <v>0.08893283958554</v>
       </c>
       <c r="C9" s="3">
-        <v>0.0809713076488</v>
+        <v>0.09009977673499</v>
       </c>
       <c r="D9" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>92</v>
+        <v>363</v>
       </c>
       <c r="G9" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3">
-        <v>0.54535232383808</v>
+        <v>0.87366250466804</v>
       </c>
       <c r="I9" s="4">
-        <v>50.1724137931035</v>
+        <v>317.139489194499</v>
       </c>
       <c r="J9" s="5">
-        <v>4.36281859070465</v>
+        <v>34.9465001867217</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1652,31 +1694,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.08103011775824</v>
+        <v>0.09010052781078</v>
       </c>
       <c r="C10" s="3">
-        <v>0.08309169104463</v>
+        <v>0.09102266362213</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="G10" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3">
-        <v>0.75164664858582</v>
+        <v>0.92474682239034</v>
       </c>
       <c r="I10" s="4">
-        <v>66.8965517241379</v>
+        <v>334.758349705305</v>
       </c>
       <c r="J10" s="5">
-        <v>7.5164664858582</v>
+        <v>34.2156324284427</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1684,31 +1726,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0.08310129577557</v>
+        <v>0.0910237134202</v>
       </c>
       <c r="C11" s="3">
-        <v>0.08519016518739</v>
+        <v>0.09190795560181</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>90</v>
+        <v>361</v>
       </c>
       <c r="G11" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H11" s="3">
-        <v>0.74329501915709</v>
+        <v>0.92730844793713</v>
       </c>
       <c r="I11" s="4">
-        <v>66.8965517241379</v>
+        <v>334.758349705305</v>
       </c>
       <c r="J11" s="5">
-        <v>4.45977011494253</v>
+        <v>32.4557956777996</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1716,31 +1758,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0.08519917113775</v>
+        <v>0.09190895133448</v>
       </c>
       <c r="C12" s="3">
-        <v>0.08707560104019</v>
+        <v>0.09267672532819</v>
       </c>
       <c r="D12" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="G12" s="2">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3">
-        <v>0.95023510971787</v>
+        <v>0.84473988750437</v>
       </c>
       <c r="I12" s="4">
-        <v>83.6206896551724</v>
+        <v>308.330058939096</v>
       </c>
       <c r="J12" s="5">
-        <v>11.4028213166144</v>
+        <v>32.9448556126706</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1748,31 +1790,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0.08710122416204</v>
+        <v>0.09267799569186</v>
       </c>
       <c r="C13" s="3">
-        <v>0.08910467728843</v>
+        <v>0.09342341183124</v>
       </c>
       <c r="D13" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="G13" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3">
-        <v>0.74329501915709</v>
+        <v>0.90041137969586</v>
       </c>
       <c r="I13" s="4">
-        <v>66.8965517241379</v>
+        <v>325.948919449902</v>
       </c>
       <c r="J13" s="5">
-        <v>6.68965517241379</v>
+        <v>27.9127527705717</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1780,31 +1822,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0891461603887</v>
+        <v>0.09342343611504</v>
       </c>
       <c r="C14" s="3">
-        <v>0.0907429599504</v>
+        <v>0.09412782724448</v>
       </c>
       <c r="D14" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3">
-        <v>0.65038314176245</v>
+        <v>0.87366250466804</v>
       </c>
       <c r="I14" s="4">
-        <v>58.5344827586207</v>
+        <v>317.139489194499</v>
       </c>
       <c r="J14" s="5">
-        <v>6.50383141762452</v>
+        <v>37.5674877007258</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1812,31 +1854,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>0.09074902782647</v>
+        <v>0.09413009439585</v>
       </c>
       <c r="C15" s="3">
-        <v>0.09215487281102</v>
+        <v>0.09486388828592</v>
       </c>
       <c r="D15" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="G15" s="2">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="H15" s="3">
-        <v>0.95023510971787</v>
+        <v>0.79212860607164</v>
       </c>
       <c r="I15" s="4">
-        <v>83.6206896551724</v>
+        <v>290.711198428291</v>
       </c>
       <c r="J15" s="5">
-        <v>3.80094043887147</v>
+        <v>36.4379158792953</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1844,31 +1886,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>0.09218707053384</v>
+        <v>0.09486391259197</v>
       </c>
       <c r="C16" s="3">
-        <v>0.09351002761449</v>
+        <v>0.09553585553135</v>
       </c>
       <c r="D16" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="G16" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H16" s="3">
-        <v>0.44957360029663</v>
+        <v>1.00890123036735</v>
       </c>
       <c r="I16" s="4">
-        <v>41.8103448275862</v>
+        <v>361.186640471513</v>
       </c>
       <c r="J16" s="5">
-        <v>4.49573600296626</v>
+        <v>38.3382467539595</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1876,31 +1918,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>0.09353711663749</v>
+        <v>0.09553633247365</v>
       </c>
       <c r="C17" s="3">
-        <v>0.09493634947479</v>
+        <v>0.09618949573674</v>
       </c>
       <c r="D17" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>87</v>
+        <v>363</v>
       </c>
       <c r="G17" s="2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H17" s="3">
-        <v>1.05727308759413</v>
+        <v>0.89793090757549</v>
       </c>
       <c r="I17" s="4">
-        <v>91.9827586206897</v>
+        <v>325.948919449902</v>
       </c>
       <c r="J17" s="5">
-        <v>9.51545778834721</v>
+        <v>37.7130981181705</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1908,31 +1950,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.09494976101397</v>
+        <v>0.09618961281595</v>
       </c>
       <c r="C18" s="3">
-        <v>0.0962588407051</v>
+        <v>0.0969261153659</v>
       </c>
       <c r="D18" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="G18" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H18" s="3">
-        <v>1.06956696070569</v>
+        <v>0.87366250466804</v>
       </c>
       <c r="I18" s="4">
-        <v>91.9827586206897</v>
+        <v>317.139489194499</v>
       </c>
       <c r="J18" s="5">
-        <v>16.0435044105854</v>
+        <v>29.7045251587134</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1940,31 +1982,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0.0962953045424</v>
+        <v>0.09692630390467</v>
       </c>
       <c r="C19" s="3">
-        <v>0.09743781070745</v>
+        <v>0.09754908675779</v>
       </c>
       <c r="D19" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="2">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="G19" s="2">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3">
-        <v>1.16680032076985</v>
+        <v>0.84473988750437</v>
       </c>
       <c r="I19" s="4">
-        <v>100.344827586207</v>
+        <v>308.330058939096</v>
       </c>
       <c r="J19" s="5">
-        <v>5.83400160384924</v>
+        <v>36.3238151626881</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1972,31 +2014,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0.0974384115049</v>
+        <v>0.0975491904364</v>
       </c>
       <c r="C20" s="3">
-        <v>0.0986359288384</v>
+        <v>0.09820315561872</v>
       </c>
       <c r="D20" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>91</v>
+        <v>373</v>
       </c>
       <c r="G20" s="2">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="H20" s="3">
-        <v>0.64323607427056</v>
+        <v>0.61406216257499</v>
       </c>
       <c r="I20" s="4">
-        <v>58.5344827586207</v>
+        <v>229.045186640472</v>
       </c>
       <c r="J20" s="5">
-        <v>3.85941644562334</v>
+        <v>32.5452946164745</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -2004,31 +2046,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>0.09864592321423</v>
+        <v>0.09820316489138</v>
       </c>
       <c r="C21" s="3">
-        <v>0.09983414650539</v>
+        <v>0.09881550203505</v>
       </c>
       <c r="D21" s="2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="G21" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H21" s="3">
-        <v>0.95023510971787</v>
+        <v>1.03350857744949</v>
       </c>
       <c r="I21" s="4">
-        <v>83.6206896551724</v>
+        <v>369.996070726916</v>
       </c>
       <c r="J21" s="5">
-        <v>5.70141065830721</v>
+        <v>36.172800210732</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -2036,31 +2078,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>0.09990054691411</v>
+        <v>0.0988169378296</v>
       </c>
       <c r="C22" s="3">
-        <v>0.10103137911943</v>
+        <v>0.09946788460128</v>
       </c>
       <c r="D22" s="2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="G22" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H22" s="3">
-        <v>0.85521159874608</v>
+        <v>0.87366250466804</v>
       </c>
       <c r="I22" s="4">
-        <v>75.2586206896552</v>
+        <v>317.139489194499</v>
       </c>
       <c r="J22" s="5">
-        <v>5.98648119122257</v>
+        <v>35.8201626913897</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -2068,31 +2110,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>0.10103268536546</v>
+        <v>0.09946795319052</v>
       </c>
       <c r="C23" s="3">
-        <v>0.10227775075839</v>
+        <v>0.10011021266807</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="G23" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H23" s="3">
-        <v>1.5112172829248</v>
+        <v>0.92474682239034</v>
       </c>
       <c r="I23" s="4">
-        <v>125.431034482759</v>
+        <v>334.758349705305</v>
       </c>
       <c r="J23" s="5">
-        <v>16.6233901121728</v>
+        <v>36.0651260732234</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -2100,31 +2142,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>0.10228171614095</v>
+        <v>0.10011051746052</v>
       </c>
       <c r="C24" s="3">
-        <v>0.10338690609601</v>
+        <v>0.10072311590398</v>
       </c>
       <c r="D24" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>86</v>
+        <v>361</v>
       </c>
       <c r="G24" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H24" s="3">
-        <v>1.16680032076985</v>
+        <v>0.92730844793713</v>
       </c>
       <c r="I24" s="4">
-        <v>100.344827586207</v>
+        <v>334.758349705305</v>
       </c>
       <c r="J24" s="5">
-        <v>8.16760224538893</v>
+        <v>32.4557956777996</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -2132,31 +2174,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>0.10340511151338</v>
+        <v>0.10072413435844</v>
       </c>
       <c r="C25" s="3">
-        <v>0.10460841726687</v>
+        <v>0.10132078403589</v>
       </c>
       <c r="D25" s="2">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>90</v>
+        <v>354</v>
       </c>
       <c r="G25" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H25" s="3">
-        <v>0.74329501915709</v>
+        <v>1.14472822527832</v>
       </c>
       <c r="I25" s="4">
-        <v>66.8965517241379</v>
+        <v>405.233791748527</v>
       </c>
       <c r="J25" s="5">
-        <v>5.20306513409962</v>
+        <v>43.4996725605763</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -2164,31 +2206,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>0.10461320279089</v>
+        <v>0.10132172692229</v>
       </c>
       <c r="C26" s="3">
-        <v>0.10571048344219</v>
+        <v>0.10191226374482</v>
       </c>
       <c r="D26" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="G26" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H26" s="3">
-        <v>0.75164664858582</v>
+        <v>1.00890123036735</v>
       </c>
       <c r="I26" s="4">
-        <v>66.8965517241379</v>
+        <v>361.186640471513</v>
       </c>
       <c r="J26" s="5">
-        <v>5.26152654010074</v>
+        <v>35.3115430628574</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -2196,31 +2238,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>0.10572789689254</v>
+        <v>0.1019133067884</v>
       </c>
       <c r="C27" s="3">
-        <v>0.10713473873026</v>
+        <v>0.10251048732722</v>
       </c>
       <c r="D27" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="G27" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H27" s="3">
-        <v>0.64323607427056</v>
+        <v>1.17625915342025</v>
       </c>
       <c r="I27" s="4">
-        <v>58.5344827586207</v>
+        <v>414.043222003929</v>
       </c>
       <c r="J27" s="5">
-        <v>8.36206896551724</v>
+        <v>35.2877746026076</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -2228,31 +2270,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>0.10714534742559</v>
+        <v>0.10251374101223</v>
       </c>
       <c r="C28" s="3">
-        <v>0.10831272090254</v>
+        <v>0.10312824144195</v>
       </c>
       <c r="D28" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
-        <v>84</v>
+        <v>362</v>
       </c>
       <c r="G28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H28" s="3">
-        <v>1.39367816091954</v>
+        <v>0.92474682239034</v>
       </c>
       <c r="I28" s="4">
-        <v>117.068965517241</v>
+        <v>334.758349705305</v>
       </c>
       <c r="J28" s="5">
-        <v>11.1494252873563</v>
+        <v>24.043417382149</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -2260,31 +2302,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>0.10834382103733</v>
+        <v>0.10312826171774</v>
       </c>
       <c r="C29" s="3">
-        <v>0.10948119182305</v>
+        <v>0.10371250794866</v>
       </c>
       <c r="D29" s="2">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="G29" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H29" s="3">
-        <v>0.64323607427056</v>
+        <v>1.11984282907662</v>
       </c>
       <c r="I29" s="4">
-        <v>58.5344827586207</v>
+        <v>396.424361493124</v>
       </c>
       <c r="J29" s="5">
-        <v>5.14588859416446</v>
+        <v>43.6738703339882</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -2292,31 +2334,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>0.1094880571303</v>
+        <v>0.1037136988347</v>
       </c>
       <c r="C30" s="3">
-        <v>0.11078896830436</v>
+        <v>0.10434186943518</v>
       </c>
       <c r="D30" s="2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="G30" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H30" s="3">
-        <v>1.5112172829248</v>
+        <v>1.03350857744949</v>
       </c>
       <c r="I30" s="4">
-        <v>125.431034482759</v>
+        <v>369.996070726916</v>
       </c>
       <c r="J30" s="5">
-        <v>21.1570419609472</v>
+        <v>27.9047315911361</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -2324,31 +2366,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>0.11081189233251</v>
+        <v>0.10434198045341</v>
       </c>
       <c r="C31" s="3">
-        <v>0.11210796482856</v>
+        <v>0.10496721654558</v>
       </c>
       <c r="D31" s="2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>88</v>
+        <v>357</v>
       </c>
       <c r="G31" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H31" s="3">
-        <v>0.85521159874608</v>
+        <v>1.03640355945915</v>
       </c>
       <c r="I31" s="4">
-        <v>75.2586206896552</v>
+        <v>369.996070726916</v>
       </c>
       <c r="J31" s="5">
-        <v>4.27605799373041</v>
+        <v>32.1285103432336</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -2356,31 +2398,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>0.11213079882545</v>
+        <v>0.10496791715351</v>
       </c>
       <c r="C32" s="3">
-        <v>0.11363068837035</v>
+        <v>0.10562355992852</v>
       </c>
       <c r="D32" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2">
-        <v>91</v>
+        <v>359</v>
       </c>
       <c r="G32" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H32" s="3">
-        <v>0.64323607427056</v>
+        <v>1.00609092053346</v>
       </c>
       <c r="I32" s="4">
-        <v>58.5344827586207</v>
+        <v>361.186640471513</v>
       </c>
       <c r="J32" s="5">
-        <v>6.43236074270557</v>
+        <v>31.1888185365373</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -2388,31 +2430,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>0.11365402601809</v>
+        <v>0.10562486857783</v>
       </c>
       <c r="C33" s="3">
-        <v>0.11501648637985</v>
+        <v>0.1062156540652</v>
       </c>
       <c r="D33" s="2">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2">
         <v>7</v>
       </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
       <c r="F33" s="2">
-        <v>91</v>
+        <v>350</v>
       </c>
       <c r="G33" s="2">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H33" s="3">
-        <v>0.64323607427056</v>
+        <v>1.23332023575639</v>
       </c>
       <c r="I33" s="4">
-        <v>58.5344827586207</v>
+        <v>431.662082514735</v>
       </c>
       <c r="J33" s="5">
-        <v>4.5026525198939</v>
+        <v>53.0327701375246</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -2420,31 +2462,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>0.11502284645395</v>
+        <v>0.10621590440905</v>
       </c>
       <c r="C34" s="3">
-        <v>0.11624773499366</v>
+        <v>0.10681166336262</v>
       </c>
       <c r="D34" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="G34" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H34" s="3">
-        <v>1.63162321278385</v>
+        <v>1.08880598662281</v>
       </c>
       <c r="I34" s="4">
-        <v>133.793103448276</v>
+        <v>387.614931237721</v>
       </c>
       <c r="J34" s="5">
-        <v>16.3162321278385</v>
+        <v>42.4634334782897</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -2452,31 +2494,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>0.11624957035759</v>
+        <v>0.1068118199717</v>
       </c>
       <c r="C35" s="3">
-        <v>0.11797328756038</v>
+        <v>0.1075332405382</v>
       </c>
       <c r="D35" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="G35" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H35" s="3">
-        <v>1.29412972085386</v>
+        <v>0.87366250466804</v>
       </c>
       <c r="I35" s="4">
-        <v>108.706896551724</v>
+        <v>317.139489194499</v>
       </c>
       <c r="J35" s="5">
-        <v>10.3530377668309</v>
+        <v>31.4518501680495</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -2484,31 +2526,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>0.11799262816535</v>
+        <v>0.10753726226194</v>
       </c>
       <c r="C36" s="3">
-        <v>0.11946993273271</v>
+        <v>0.1082501189706</v>
       </c>
       <c r="D36" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="G36" s="2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H36" s="3">
-        <v>1.2789046653144</v>
+        <v>1.08880598662281</v>
       </c>
       <c r="I36" s="4">
-        <v>108.706896551724</v>
+        <v>387.614931237721</v>
       </c>
       <c r="J36" s="5">
-        <v>11.5101419878296</v>
+        <v>39.1970155184212</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -2516,31 +2558,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>0.11948024595354</v>
+        <v>0.10825136549769</v>
       </c>
       <c r="C37" s="3">
-        <v>0.12113196722721</v>
+        <v>0.10891795120323</v>
       </c>
       <c r="D37" s="2">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="G37" s="2">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H37" s="3">
-        <v>1.05727308759413</v>
+        <v>1.09187304574006</v>
       </c>
       <c r="I37" s="4">
-        <v>91.9827586206897</v>
+        <v>387.614931237721</v>
       </c>
       <c r="J37" s="5">
-        <v>12.6872770511296</v>
+        <v>44.7667948753424</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -2548,31 +2590,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>0.12114735259643</v>
+        <v>0.10892009001671</v>
       </c>
       <c r="C38" s="3">
-        <v>0.12273846638712</v>
+        <v>0.10964395841062</v>
       </c>
       <c r="D38" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>88</v>
+        <v>357</v>
       </c>
       <c r="G38" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H38" s="3">
-        <v>0.95023510971787</v>
+        <v>1.06107983468437</v>
       </c>
       <c r="I38" s="4">
-        <v>83.6206896551724</v>
+        <v>378.805500982318</v>
       </c>
       <c r="J38" s="5">
-        <v>12.3530564263323</v>
+        <v>44.5653530567433</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -2580,31 +2622,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>0.12275554009585</v>
+        <v>0.10964420792022</v>
       </c>
       <c r="C39" s="3">
-        <v>0.12457099521762</v>
+        <v>0.11040440289258</v>
       </c>
       <c r="D39" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2">
         <v>4</v>
       </c>
       <c r="F39" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="G39" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H39" s="3">
-        <v>1.41046946406315</v>
+        <v>1.09187304574006</v>
       </c>
       <c r="I39" s="4">
-        <v>117.068965517241</v>
+        <v>387.614931237721</v>
       </c>
       <c r="J39" s="5">
-        <v>4.23140839218945</v>
+        <v>30.5724452807217</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -2612,31 +2654,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>0.12457389497151</v>
+        <v>0.11040444252856</v>
       </c>
       <c r="C40" s="3">
-        <v>0.12659339176869</v>
+        <v>0.1112883137201</v>
       </c>
       <c r="D40" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="G40" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H40" s="3">
-        <v>1.63162321278385</v>
+        <v>1.17625915342025</v>
       </c>
       <c r="I40" s="4">
-        <v>133.793103448276</v>
+        <v>414.043222003929</v>
       </c>
       <c r="J40" s="5">
-        <v>8.15811606391926</v>
+        <v>34.1115154491874</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -2644,31 +2686,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>0.12662842600433</v>
+        <v>0.11128871105444</v>
       </c>
       <c r="C41" s="3">
-        <v>0.12864924186346</v>
+        <v>0.11212944575687</v>
       </c>
       <c r="D41" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F41" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="G41" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H41" s="3">
-        <v>1.5112172829248</v>
+        <v>1.11668834223415</v>
       </c>
       <c r="I41" s="4">
-        <v>125.431034482759</v>
+        <v>396.424361493124</v>
       </c>
       <c r="J41" s="5">
-        <v>9.06730369754882</v>
+        <v>44.6675336893661</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -2676,31 +2718,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>0.12865071183457</v>
+        <v>0.11213010155759</v>
       </c>
       <c r="C42" s="3">
-        <v>0.13068258968589</v>
+        <v>0.11312033016379</v>
       </c>
       <c r="D42" s="2">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="G42" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H42" s="3">
-        <v>0.84560247965905</v>
+        <v>1.37886734432391</v>
       </c>
       <c r="I42" s="4">
-        <v>75.2586206896552</v>
+        <v>475.709233791749</v>
       </c>
       <c r="J42" s="5">
-        <v>6.76481983727238</v>
+        <v>49.6392243956607</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -2708,31 +2750,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>0.13069610269906</v>
+        <v>0.1131228250607</v>
       </c>
       <c r="C43" s="3">
-        <v>0.13326476769531</v>
+        <v>0.11417308431762</v>
       </c>
       <c r="D43" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" s="2">
-        <v>89</v>
+        <v>356</v>
       </c>
       <c r="G43" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H43" s="3">
-        <v>0.75164664858582</v>
+        <v>1.08880598662281</v>
       </c>
       <c r="I43" s="4">
-        <v>66.8965517241379</v>
+        <v>387.614931237721</v>
       </c>
       <c r="J43" s="5">
-        <v>5.26152654010074</v>
+        <v>33.7529855853072</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -2740,31 +2782,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>0.13327245285953</v>
+        <v>0.11417589176244</v>
       </c>
       <c r="C44" s="3">
-        <v>0.13571614056683</v>
+        <v>0.11530196651467</v>
       </c>
       <c r="D44" s="2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="G44" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H44" s="3">
-        <v>1.5112172829248</v>
+        <v>1.03640355945915</v>
       </c>
       <c r="I44" s="4">
-        <v>125.431034482759</v>
+        <v>369.996070726916</v>
       </c>
       <c r="J44" s="5">
-        <v>15.112172829248</v>
+        <v>35.237721021611</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -2772,31 +2814,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>0.13574874464808</v>
+        <v>0.11530214455263</v>
       </c>
       <c r="C45" s="3">
-        <v>0.1383647399767</v>
+        <v>0.11665558445403</v>
       </c>
       <c r="D45" s="2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F45" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="G45" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H45" s="3">
-        <v>1.5112172829248</v>
+        <v>1.06107983468437</v>
       </c>
       <c r="I45" s="4">
-        <v>125.431034482759</v>
+        <v>378.805500982318</v>
       </c>
       <c r="J45" s="5">
-        <v>19.6458246780224</v>
+        <v>41.3821135526902</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -2804,31 +2846,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>0.13836855310479</v>
+        <v>0.11665783719352</v>
       </c>
       <c r="C46" s="3">
-        <v>0.14162353929908</v>
+        <v>0.11821214094468</v>
       </c>
       <c r="D46" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="G46" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H46" s="3">
-        <v>1.5112172829248</v>
+        <v>1.11984282907662</v>
       </c>
       <c r="I46" s="4">
-        <v>125.431034482759</v>
+        <v>396.424361493124</v>
       </c>
       <c r="J46" s="5">
-        <v>7.55608641462402</v>
+        <v>43.6738703339882</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -2836,31 +2878,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>0.14164425201306</v>
+        <v>0.11822016315548</v>
       </c>
       <c r="C47" s="3">
-        <v>0.1455135608444</v>
+        <v>0.12019131963669</v>
       </c>
       <c r="D47" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E47" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F47" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="G47" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H47" s="3">
-        <v>1.29412972085386</v>
+        <v>1.40440192477435</v>
       </c>
       <c r="I47" s="4">
-        <v>108.706896551724</v>
+        <v>484.518664047151</v>
       </c>
       <c r="J47" s="5">
-        <v>6.4706486042693</v>
+        <v>44.9408615927792</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -2868,31 +2910,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>0.14557165746445</v>
+        <v>0.12019534620378</v>
       </c>
       <c r="C48" s="3">
-        <v>0.15086677001006</v>
+        <v>0.12288945980784</v>
       </c>
       <c r="D48" s="2">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="2">
-        <v>86</v>
+        <v>360</v>
       </c>
       <c r="G48" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H48" s="3">
-        <v>1.16680032076985</v>
+        <v>0.9543549443353</v>
       </c>
       <c r="I48" s="4">
-        <v>100.344827586207</v>
+        <v>343.567779960707</v>
       </c>
       <c r="J48" s="5">
-        <v>16.3352044907779</v>
+        <v>40.0829076620825</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -2900,31 +2942,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>0.15091208161366</v>
+        <v>0.12290640536684</v>
       </c>
       <c r="C49" s="3">
-        <v>0.15760392362346</v>
+        <v>0.12720362779037</v>
       </c>
       <c r="D49" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E49" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F49" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="G49" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H49" s="3">
-        <v>2.14412024756852</v>
+        <v>1.20128594391856</v>
       </c>
       <c r="I49" s="4">
-        <v>167.241379310345</v>
+        <v>422.852652259332</v>
       </c>
       <c r="J49" s="5">
-        <v>6.43236074270557</v>
+        <v>46.8501518128237</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -2932,31 +2974,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>0.15782639370827</v>
+        <v>0.12720726129155</v>
       </c>
       <c r="C50" s="3">
-        <v>0.17706353820142</v>
+        <v>0.13761338350923</v>
       </c>
       <c r="D50" s="2">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="G50" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H50" s="3">
-        <v>1.75500212856535</v>
+        <v>1.46823837590046</v>
       </c>
       <c r="I50" s="4">
-        <v>142.155172413793</v>
+        <v>502.137524557957</v>
       </c>
       <c r="J50" s="5">
-        <v>5.26500638569604</v>
+        <v>39.6424361493124</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -2964,31 +3006,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>0.17805167406462</v>
+        <v>0.13765066693352</v>
       </c>
       <c r="C51" s="3">
-        <v>0.25717800143182</v>
+        <v>0.5148838794505</v>
       </c>
       <c r="D51" s="2">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E51" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F51" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="G51" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="H51" s="3">
-        <v>2.0369142351901</v>
+        <v>1.68299563088291</v>
       </c>
       <c r="I51" s="4">
-        <v>158.879310344828</v>
+        <v>563.803536345776</v>
       </c>
       <c r="J51" s="5">
-        <v>18.3322281167109</v>
+        <v>77.417799020614</v>
       </c>
     </row>
     <row r="52" ht="12" customHeight="1"/>
@@ -3030,37 +3072,37 @@
   <sheetData>
     <row r="1" ht="14" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" ht="14" customHeight="1">
@@ -3068,34 +3110,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>432</v>
+        <v>1863</v>
       </c>
       <c r="C2" s="2">
-        <v>44803</v>
+        <v>179342</v>
       </c>
       <c r="D2" s="3">
-        <v>0.96422114590541</v>
+        <v>1.03879738153918</v>
       </c>
       <c r="E2" s="3">
-        <v>0.87542838297445</v>
+        <v>0.99215698857772</v>
       </c>
       <c r="F2" s="3">
-        <v>1.05957847461428</v>
+        <v>1.08706423973847</v>
       </c>
       <c r="G2" s="2">
-        <v>416</v>
+        <v>1852</v>
       </c>
       <c r="H2" s="2">
-        <v>43628</v>
+        <v>179050</v>
       </c>
       <c r="I2" s="3">
-        <v>0.95351609058403</v>
+        <v>1.0343479475007</v>
       </c>
       <c r="J2" s="3">
-        <v>0.86407774306937</v>
+        <v>0.98777119080775</v>
       </c>
       <c r="K2" s="3">
-        <v>1.04969783092181</v>
+        <v>1.08255385926883</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -3103,34 +3145,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2">
-        <v>5386</v>
+        <v>20160</v>
       </c>
       <c r="D3" s="3">
-        <v>1.02116598588934</v>
+        <v>0.98214285714286</v>
       </c>
       <c r="E3" s="3">
-        <v>0.76928197124839</v>
+        <v>0.85009860567084</v>
       </c>
       <c r="F3" s="3">
-        <v>1.32918789409505</v>
+        <v>1.12888554968908</v>
       </c>
       <c r="G3" s="2">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="H3" s="2">
-        <v>5375</v>
+        <v>20160</v>
       </c>
       <c r="I3" s="3">
-        <v>1.02325581395349</v>
+        <v>0.98214285714286</v>
       </c>
       <c r="J3" s="3">
-        <v>0.77085631574769</v>
+        <v>0.85009860567084</v>
       </c>
       <c r="K3" s="3">
-        <v>1.33190809257599</v>
+        <v>1.12888554968908</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1"/>
@@ -3170,57 +3212,57 @@
   <sheetData>
     <row r="1" ht="14" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" ht="14" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C2" s="12">
-        <v>0.04076613226515</v>
+        <v>-0.0623785283925</v>
       </c>
       <c r="D2" s="12">
-        <v>0.14314773670009</v>
+        <v>0.07475811917693</v>
       </c>
       <c r="E2" s="13">
-        <v>1.04160847844288</v>
+        <v>0.93952718175927</v>
       </c>
       <c r="F2" s="13">
-        <v>0.78678655868466</v>
+        <v>0.81147495952204</v>
       </c>
       <c r="G2" s="13">
-        <v>1.37896130836029</v>
+        <v>1.08778627720619</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>24</v>
@@ -3228,31 +3270,31 @@
     </row>
     <row r="3" ht="14" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C3" s="12">
-        <v>0.05299511698639</v>
+        <v>-0.056238570747</v>
       </c>
       <c r="D3" s="12">
-        <v>0.14113365512762</v>
+        <v>0.07533593549342</v>
       </c>
       <c r="E3" s="13">
-        <v>1.05442449633762</v>
+        <v>0.94531358481845</v>
       </c>
       <c r="F3" s="13">
-        <v>0.79961752125558</v>
+        <v>0.81554857740995</v>
       </c>
       <c r="G3" s="13">
-        <v>1.3904285347963</v>
+        <v>1.09572599155318</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="I3" s="15">
-        <v>0.98360105698561</v>
+        <v>1.00742297356637</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1"/>
@@ -3316,22 +3358,22 @@
         <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>522</v>
+        <v>2036</v>
       </c>
       <c r="C2" s="2">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="D2" s="2">
-        <v>4365</v>
+        <v>17936</v>
       </c>
       <c r="E2" s="2">
-        <v>418</v>
+        <v>1857</v>
       </c>
       <c r="F2" s="2">
-        <v>4365</v>
+        <v>17936</v>
       </c>
       <c r="G2" s="2">
-        <v>416</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="3" ht="12" customHeight="1"/>
@@ -3494,10 +3536,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="7">
-        <v>523</v>
+        <v>2036</v>
       </c>
       <c r="D2" s="7">
-        <v>4477</v>
+        <v>17964</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -3520,10 +3562,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="9">
-        <v>245.2</v>
+        <v>99.3</v>
       </c>
       <c r="F3" s="9">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -3540,10 +3582,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="9">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>5.7</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -3580,10 +3622,10 @@
         <v>38</v>
       </c>
       <c r="E6" s="9">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="F6" s="9">
-        <v>4.4</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -3600,10 +3642,10 @@
         <v>41</v>
       </c>
       <c r="E7" s="9">
-        <v>-2.6</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="9">
-        <v>-7.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -3620,10 +3662,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="9">
+        <v>-0.6</v>
+      </c>
+      <c r="F8" s="9">
         <v>-1.6</v>
-      </c>
-      <c r="F8" s="9">
-        <v>-4.3</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -3640,10 +3682,10 @@
         <v>47</v>
       </c>
       <c r="E9" s="9">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="F9" s="9">
-        <v>-2.2</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -3654,56 +3696,56 @@
         <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="F10" s="9">
-        <v>1.4</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="F11" s="9">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="9">
-        <v>-1.3</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="9">
-        <v>-3.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -3714,236 +3756,236 @@
         <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" s="9">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="F13" s="9">
-        <v>0.9</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
       <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="9">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="F14" s="9">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" s="9">
-        <v>-1.7</v>
+        <v>-3.2</v>
       </c>
       <c r="F15" s="9">
-        <v>-3.3</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
       <c r="A16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="E16" s="9">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="F16" s="9">
-        <v>3.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
       <c r="A17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" s="9">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="F17" s="9">
-        <v>0.1</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F18" s="9">
-        <v>-0.1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
       <c r="A19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" s="9">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F19" s="9">
-        <v>-2.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
       <c r="A20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="E20" s="9">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F20" s="9">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
       <c r="A21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="E21" s="9">
-        <v>-1.3</v>
+        <v>0.2</v>
       </c>
       <c r="F21" s="9">
-        <v>-5.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
       <c r="A22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="E22" s="9">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>-5.1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E23" s="9">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F23" s="9">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
       <c r="A24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="E24" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F24" s="9">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -3954,96 +3996,96 @@
         <v>30</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E25" s="9">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F25" s="9">
-        <v>5.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="9">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F26" s="9">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="9">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="F27" s="9">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E28" s="9">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="F29" s="9">
         <v>-0.3</v>
-      </c>
-      <c r="F29" s="9">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -4060,10 +4102,10 @@
         <v>105</v>
       </c>
       <c r="E30" s="9">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="F30" s="9">
-        <v>8.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -4074,241 +4116,241 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E31" s="9">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="F31" s="9">
-        <v>-2.8</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E32" s="9">
-        <v>-1.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F32" s="9">
-        <v>-5.8</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E33" s="9">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F33" s="9">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E34" s="9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F34" s="9">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E35" s="9">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="F35" s="9">
-        <v>-0.8</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E36" s="9">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="9">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E37" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F37" s="9">
-        <v>-0.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E38" s="9">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="F38" s="9">
-        <v>-7.5</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E39" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F39" s="9">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E40" s="9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F40" s="9">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E41" s="9">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="F41" s="9">
-        <v>-7.1</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E42" s="9">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>-2.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>30</v>
@@ -4317,258 +4359,258 @@
         <v>124</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E43" s="9">
-        <v>-0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F43" s="9">
-        <v>-8.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E44" s="9">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F44" s="9">
-        <v>-2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E45" s="9">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="F45" s="9">
-        <v>-6.3</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E46" s="9">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F46" s="9">
-        <v>-9.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E47" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E48" s="9">
         <v>-0.3</v>
       </c>
       <c r="F48" s="9">
-        <v>-2.8</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E49" s="9">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F49" s="9">
-        <v>-0.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E50" s="9">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="F50" s="9">
-        <v>-11.7</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E51" s="9">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="F51" s="9">
-        <v>-4.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E52" s="9">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F52" s="9">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E53" s="9">
         <v>0.5</v>
       </c>
       <c r="F53" s="9">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E54" s="9">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="F54" s="9">
-        <v>-8.5</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E55" s="9">
         <v>-0.4</v>
       </c>
       <c r="F55" s="9">
-        <v>-4.5</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>30</v>
@@ -4577,313 +4619,313 @@
         <v>139</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E56" s="9">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F56" s="9">
-        <v>-3.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E57" s="9">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="F57" s="9">
-        <v>3.2</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E58" s="9">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F58" s="9">
-        <v>-5.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E59" s="9">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="F59" s="9">
-        <v>-6.9</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E60" s="9">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="F60" s="9">
-        <v>8.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="E61" s="9">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F61" s="9">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="E62" s="9">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>8.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E63" s="9">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F63" s="9">
-        <v>-10.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="E64" s="9">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F64" s="9">
-        <v>-8.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="E65" s="9">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="F65" s="9">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E66" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>-4.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E67" s="9">
         <v>-0.1</v>
       </c>
       <c r="F67" s="9">
-        <v>-4.7</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E68" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F68" s="9">
-        <v>-2.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E69" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="9">
-        <v>5.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
-        <v>-2.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="E71" s="9">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="F71" s="9">
-        <v>-1.6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="72" ht="12" customHeight="1"/>
@@ -4903,7 +4945,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
     </sheetView>
@@ -4946,10 +4988,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="7">
-        <v>522</v>
+        <v>2036</v>
       </c>
       <c r="D2" s="7">
-        <v>4365</v>
+        <v>17936</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -4966,16 +5008,16 @@
         <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E3" s="9">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -4986,16 +5028,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E4" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -5009,13 +5051,13 @@
         <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E5" s="9">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -5029,13 +5071,13 @@
         <v>37</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E6" s="9">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F6" s="9">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -5046,16 +5088,16 @@
         <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -5069,13 +5111,13 @@
         <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E8" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -5089,13 +5131,13 @@
         <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E9" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="F9" s="9">
         <v>-0.3</v>
-      </c>
-      <c r="F9" s="9">
-        <v>-0.9</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -5106,50 +5148,50 @@
         <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E10" s="9">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>-0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
         <v>0.1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.2</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -5166,230 +5208,230 @@
         <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
         <v>-0.1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>-0.3</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
       <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E14" s="9">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F14" s="9">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E15" s="9">
         <v>0.2</v>
       </c>
       <c r="F15" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
       <c r="A16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E16" s="9">
         <v>-0.2</v>
       </c>
       <c r="F16" s="9">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
       <c r="A17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E17" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E18" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
       <c r="A19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E19" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
       <c r="A20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
       <c r="A21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E21" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
       <c r="A22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E22" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E23" s="9">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F23" s="9">
-        <v>-0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
       <c r="A24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
@@ -5406,96 +5448,96 @@
         <v>30</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E25" s="9">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="9">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E26" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E27" s="9">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F27" s="9">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E28" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
       </c>
       <c r="F29" s="9">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -5509,13 +5551,13 @@
         <v>104</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E30" s="9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>-1.6</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -5526,241 +5568,241 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
         <v>0.1</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0.2</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E33" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E34" s="9">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F34" s="9">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E35" s="9">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="F35" s="9">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E36" s="9">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>-0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="E37" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="9">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
         <v>-0.1</v>
-      </c>
-      <c r="F38" s="9">
-        <v>-1.1</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
       </c>
       <c r="F39" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E40" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E41" s="9">
         <v>0</v>
       </c>
       <c r="F41" s="9">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="E42" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>30</v>
@@ -5769,27 +5811,27 @@
         <v>124</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
         <v>-0.1</v>
-      </c>
-      <c r="F43" s="9">
-        <v>-1.4</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
@@ -5800,116 +5842,116 @@
     </row>
     <row r="45" ht="14" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>0.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E48" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E49" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="9">
-        <v>1.6</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
@@ -5920,282 +5962,282 @@
     </row>
     <row r="51" ht="14" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
       </c>
       <c r="F51" s="9">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E52" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E53" s="9">
         <v>-0.1</v>
       </c>
       <c r="F53" s="9">
-        <v>-1.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E54" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="9">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E56" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
       </c>
       <c r="F57" s="9">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E58" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>-1.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E59" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="9">
-        <v>1.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="E60" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="E61" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F61" s="9">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E63" s="9">
         <v>0</v>
       </c>
       <c r="F63" s="9">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>24</v>
+      <c r="F64" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -6206,19 +6248,119 @@
         <v>30</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
       </c>
       <c r="F65" s="9">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="66" ht="14" customHeight="1">
+      <c r="A66" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="14" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" ht="12" customHeight="1"/>
+      <c r="F67" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="68" ht="14" customHeight="1">
+      <c r="A68" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="F68" s="9">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="69" ht="14" customHeight="1">
+      <c r="A69" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="70" ht="14" customHeight="1">
+      <c r="A70" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" ht="12" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -6249,35 +6391,35 @@
   <sheetData>
     <row r="1" ht="14" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" ht="14" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C2" s="10">
-        <v>0.60045010166686</v>
+        <v>0.54642461357992</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C3" s="10">
-        <v>0.51737943213</v>
+        <v>0.50092488257226</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1"/>
